--- a/public/historico/reportesemestre.xlsx
+++ b/public/historico/reportesemestre.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="biodesarrollodeemprendedores" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="ibqbiologíacelular" state="visible" r:id="rId5"/>
+    <sheet sheetId="1" name="2cálculo diferencial" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="biodesarrollodeemprendedores" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -44,40 +44,34 @@
     <t>174969</t>
   </si>
   <si>
-    <t>Sebastian</t>
+    <t>Sebastian Jimenez Ceballos</t>
+  </si>
+  <si>
+    <t>ISC</t>
+  </si>
+  <si>
+    <t>Gg-WTJnYVBnUd-meZLKB9RgA.png</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>DMyF</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
   </si>
   <si>
     <t>BIO</t>
   </si>
   <si>
-    <t>dc3FsO296qtgmNPztMfGLM92.png</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>00:00:00</t>
+    <t>9_NDQaVdjPpeVNsLwoW4eT2l.PNG</t>
   </si>
   <si>
     <t>DADMIN</t>
-  </si>
-  <si>
-    <t>0000-00-00</t>
-  </si>
-  <si>
-    <t>174968</t>
-  </si>
-  <si>
-    <t>Ruben</t>
-  </si>
-  <si>
-    <t>IBQ</t>
-  </si>
-  <si>
-    <t>c4zOHw4h6eeHVsTTgKpQMAhR.png</t>
-  </si>
-  <si>
-    <t>DBIO</t>
   </si>
 </sst>
 </file>
@@ -577,16 +571,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -598,7 +592,7 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
